--- a/master_links.xlsx
+++ b/master_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Crypto\Private\LQDU\LinkBoard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5528B949-A0F9-4904-9036-99051FC78C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E226355-CC60-495D-A92E-26F62F289CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-45" windowWidth="20730" windowHeight="11280" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="700">
   <si>
     <t>https://xhamster18.desi/videos/nubile-films-seductive-games-of-passion-3267609</t>
   </si>
@@ -1040,9 +1040,6 @@
     <t>dildo in mouth locked at 25</t>
   </si>
   <si>
-    <t>girl sitting on pussy,vpn</t>
-  </si>
-  <si>
     <t>sex and submission</t>
   </si>
   <si>
@@ -1475,9 +1472,6 @@
     <t>phoenix marie</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>sister dee</t>
   </si>
   <si>
@@ -2130,6 +2124,45 @@
   </si>
   <si>
     <t>stripping at 4m,tying at 7m,enema at 10m,enema plug at 29m</t>
+  </si>
+  <si>
+    <t>sensual stripping to hardcore bdsm,tied together at 60m</t>
+  </si>
+  <si>
+    <t>japanese</t>
+  </si>
+  <si>
+    <t>towel on face</t>
+  </si>
+  <si>
+    <t>shibari</t>
+  </si>
+  <si>
+    <t>multiple girls</t>
+  </si>
+  <si>
+    <t>sitting on pusst at 140m</t>
+  </si>
+  <si>
+    <t>tape</t>
+  </si>
+  <si>
+    <t>tit torture</t>
+  </si>
+  <si>
+    <t>sitting</t>
+  </si>
+  <si>
+    <t>upside down</t>
+  </si>
+  <si>
+    <t>sensual stripping at 1m, 69 at 11m</t>
+  </si>
+  <si>
+    <t>dildo</t>
+  </si>
+  <si>
+    <t>cunnilingus</t>
   </si>
 </sst>
 </file>
@@ -2654,35 +2687,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N108" sqref="N108"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R105" sqref="R105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="11" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="53.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="11"/>
@@ -2690,7 +2722,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>80</v>
@@ -2753,7 +2785,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>IF(ISBLANK(R2)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -2765,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>79</v>
@@ -2780,7 +2812,7 @@
         <v>118</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>137</v>
@@ -2789,19 +2821,19 @@
         <v>104</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>120</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>131</v>
@@ -2813,14 +2845,14 @@
         <v>8</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="U2" s="12" t="str" cm="1">
         <f t="array" ref="U2">_xlfn.REGEXEXTRACT(B2,"(?&lt;=//)[^/]+")</f>
         <v>tube.perverzija.com</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>IF(ISBLANK(R3)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -2835,7 +2867,7 @@
         <v>206</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>79</v>
@@ -2847,10 +2879,10 @@
         <v>118</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>176</v>
@@ -2862,13 +2894,13 @@
         <v>104</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>130</v>
@@ -2880,14 +2912,14 @@
         <v>8</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="U3" s="12" t="str" cm="1">
         <f t="array" ref="U3">_xlfn.REGEXEXTRACT(B3,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="str">
         <f>IF(ISBLANK(R4)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -2899,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>295</v>
@@ -2954,7 +2986,7 @@
         <v>spankbang.com</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="str">
         <f>IF(ISBLANK(R5)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -2966,10 +2998,10 @@
         <v>47</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>79</v>
@@ -2987,16 +3019,16 @@
         <v>137</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>114</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>151</v>
@@ -3014,14 +3046,14 @@
         <v>7</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="U5" s="12" t="str" cm="1">
         <f t="array" ref="U5">_xlfn.REGEXEXTRACT(B5,"(?&lt;=//)[^/]+")</f>
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="str">
         <f>IF(ISBLANK(R6)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -3088,7 +3120,7 @@
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="str">
         <f>IF(ISBLANK(R7)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -3103,7 +3135,7 @@
         <v>134</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>79</v>
@@ -3121,7 +3153,7 @@
         <v>104</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>162</v>
@@ -3136,7 +3168,7 @@
         <v>257</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>130</v>
@@ -3148,14 +3180,14 @@
         <v>7</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="U7" s="12" t="str" cm="1">
         <f t="array" ref="U7">_xlfn.REGEXEXTRACT(B7,"(?&lt;=//)[^/]+")</f>
         <v>m.hqporner.com</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="str">
         <f>IF(ISBLANK(R8)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -3170,7 +3202,7 @@
         <v>134</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>79</v>
@@ -3222,7 +3254,7 @@
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="str">
         <f>IF(ISBLANK(R9)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -3237,7 +3269,7 @@
         <v>134</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>79</v>
@@ -3255,13 +3287,13 @@
         <v>137</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>164</v>
@@ -3270,7 +3302,7 @@
         <v>169</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>191</v>
@@ -3282,14 +3314,14 @@
         <v>7</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="U9" s="12" t="str" cm="1">
         <f t="array" ref="U9">_xlfn.REGEXEXTRACT(B9,"(?&lt;=//)[^/]+")</f>
         <v>m.hqporner.com</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(ISBLANK(R10)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -3301,13 +3333,13 @@
         <v>85</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>170</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>79</v>
@@ -3316,7 +3348,7 @@
         <v>117</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>137</v>
@@ -3356,22 +3388,22 @@
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f>IF(ISBLANK(R11)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C11" s="12">
         <v>73</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>79</v>
@@ -3383,7 +3415,7 @@
         <v>118</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>123</v>
@@ -3395,19 +3427,19 @@
         <v>120</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O11" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="P11" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="P11" s="12" t="s">
-        <v>653</v>
-      </c>
       <c r="Q11" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R11" s="12" t="s">
         <v>93</v>
@@ -3416,14 +3448,14 @@
         <v>7</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="U11" s="12" t="str" cm="1">
         <f t="array" ref="U11">_xlfn.REGEXEXTRACT(B11,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f>IF(ISBLANK(Q12)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -3435,10 +3467,10 @@
         <v>111</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>79</v>
@@ -3453,13 +3485,13 @@
         <v>137</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>176</v>
@@ -3468,13 +3500,13 @@
         <v>104</v>
       </c>
       <c r="O12" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q12" s="12" t="s">
         <v>668</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>670</v>
       </c>
       <c r="R12" s="12" t="s">
         <v>93</v>
@@ -3483,14 +3515,14 @@
         <v>7</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="U12" s="12" t="str" cm="1">
         <f t="array" ref="U12">_xlfn.REGEXEXTRACT(B12,"(?&lt;=//)[^/]+")</f>
         <v>punishworld.com</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f>IF(ISBLANK(R13)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -3502,10 +3534,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>79</v>
@@ -3514,25 +3546,25 @@
         <v>79</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>123</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>269</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="O13" s="12" t="s">
         <v>131</v>
@@ -3541,7 +3573,7 @@
         <v>130</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R13" s="12" t="s">
         <v>93</v>
@@ -3550,14 +3582,14 @@
         <v>6</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="U13" s="12" t="str" cm="1">
         <f t="array" ref="U13">_xlfn.REGEXEXTRACT(B13,"(?&lt;=//)[^/]+")</f>
         <v>pornxp.com</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f>IF(ISBLANK(R14)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -3572,7 +3604,7 @@
         <v>150</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>79</v>
@@ -3596,19 +3628,19 @@
         <v>137</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>102</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R14" s="12" t="s">
         <v>93</v>
@@ -3617,14 +3649,14 @@
         <v>6</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U14" s="12" t="str" cm="1">
         <f t="array" ref="U14">_xlfn.REGEXEXTRACT(B14,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f>IF(ISBLANK(R15)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -3636,22 +3668,22 @@
         <v>40</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>429</v>
-      </c>
       <c r="G15" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>123</v>
@@ -3660,19 +3692,19 @@
         <v>269</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M15" s="12" t="s">
         <v>121</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q15" s="12">
         <v>69</v>
@@ -3684,14 +3716,14 @@
         <v>6</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U15" s="12" t="str" cm="1">
         <f t="array" ref="U15">_xlfn.REGEXEXTRACT(B15,"(?&lt;=//)[^/]+")</f>
         <v>www.tnaflix.com</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f>IF(ISBLANK(R16)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -3703,10 +3735,10 @@
         <v>44</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>448</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>449</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>79</v>
@@ -3721,13 +3753,13 @@
         <v>120</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>146</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>102</v>
@@ -3736,7 +3768,7 @@
         <v>109</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P16" s="12" t="s">
         <v>169</v>
@@ -3751,14 +3783,14 @@
         <v>6</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U16" s="12" t="str" cm="1">
         <f t="array" ref="U16">_xlfn.REGEXEXTRACT(B16,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f>IF(ISBLANK(R17)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -3770,10 +3802,10 @@
         <v>45</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>79</v>
@@ -3791,25 +3823,25 @@
         <v>102</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O17" s="12" t="s">
         <v>172</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R17" s="12" t="s">
         <v>93</v>
@@ -3818,14 +3850,14 @@
         <v>6</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="U17" s="12" t="str" cm="1">
         <f t="array" ref="U17">_xlfn.REGEXEXTRACT(B17,"(?&lt;=//)[^/]+")</f>
         <v>m.hqporner.com</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f>IF(ISBLANK(R18)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -3840,7 +3872,7 @@
         <v>238</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>79</v>
@@ -3870,13 +3902,13 @@
         <v>102</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="R18" s="12" t="s">
         <v>93</v>
@@ -3885,14 +3917,14 @@
         <v>6</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="U18" s="12" t="str" cm="1">
         <f t="array" ref="U18">_xlfn.REGEXEXTRACT(B18,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="str">
         <f>IF(ISBLANK(R19)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -3904,10 +3936,10 @@
         <v>48</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>79</v>
@@ -3925,7 +3957,7 @@
         <v>186</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="L19" s="12" t="s">
         <v>104</v>
@@ -3937,10 +3969,10 @@
         <v>79</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>231</v>
@@ -3952,14 +3984,14 @@
         <v>6</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="U19" s="12" t="str" cm="1">
         <f t="array" ref="U19">_xlfn.REGEXEXTRACT(B19,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f>IF(ISBLANK(R20)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -4026,7 +4058,7 @@
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f>IF(ISBLANK(R21)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -4041,7 +4073,7 @@
         <v>134</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>79</v>
@@ -4093,7 +4125,7 @@
         <v>abxxx.com</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f>IF(ISBLANK(R22)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -4108,10 +4140,10 @@
         <v>116</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>79</v>
@@ -4120,10 +4152,10 @@
         <v>117</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>128</v>
@@ -4160,7 +4192,7 @@
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f>IF(ISBLANK(R23)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -4175,7 +4207,7 @@
         <v>134</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>79</v>
@@ -4187,31 +4219,31 @@
         <v>119</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J23" s="12" t="s">
         <v>262</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="M23" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="N23" s="12" t="s">
         <v>575</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>577</v>
       </c>
       <c r="O23" s="12" t="s">
         <v>131</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R23" s="12" t="s">
         <v>93</v>
@@ -4220,14 +4252,14 @@
         <v>6</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="U23" s="12" t="str" cm="1">
         <f t="array" ref="U23">_xlfn.REGEXEXTRACT(B23,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f>IF(ISBLANK(R24)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -4239,10 +4271,10 @@
         <v>57</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>79</v>
@@ -4272,13 +4304,13 @@
         <v>109</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="P24" s="12" t="s">
         <v>129</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R24" s="12" t="s">
         <v>93</v>
@@ -4287,14 +4319,14 @@
         <v>6</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="U24" s="12" t="str" cm="1">
         <f t="array" ref="U24">_xlfn.REGEXEXTRACT(B24,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f>IF(ISBLANK(R25)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -4309,7 +4341,7 @@
         <v>151</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>79</v>
@@ -4330,7 +4362,7 @@
         <v>104</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M25" s="12" t="s">
         <v>120</v>
@@ -4339,7 +4371,7 @@
         <v>176</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="P25" s="12" t="s">
         <v>79</v>
@@ -4354,14 +4386,14 @@
         <v>6</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="U25" s="12" t="str" cm="1">
         <f t="array" ref="U25">_xlfn.REGEXEXTRACT(B25,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>IF(ISBLANK(R26)=TRUE,"Pending","Done")</f>
         <v>Done</v>
@@ -4376,7 +4408,7 @@
         <v>206</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>79</v>
@@ -4428,22 +4460,22 @@
         <v>www.pornhits.com</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
         <f>IF(ISBLANK(R27)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>308</v>
+        <v>664</v>
       </c>
       <c r="C27" s="12">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>79</v>
@@ -4455,62 +4487,62 @@
         <v>118</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>109</v>
+        <v>677</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>104</v>
+        <v>643</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>156</v>
+        <v>678</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>105</v>
+        <v>444</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>328</v>
+        <v>679</v>
       </c>
       <c r="Q27" s="12" t="s">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="R27" s="12" t="s">
-        <v>93</v>
+        <v>676</v>
       </c>
       <c r="S27" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>329</v>
+        <v>680</v>
       </c>
       <c r="U27" s="12" t="str" cm="1">
         <f t="array" ref="U27">_xlfn.REGEXEXTRACT(B27,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.com</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>punishworld.com</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="str">
         <f>IF(ISBLANK(R28)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C28" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>79</v>
@@ -4522,31 +4554,31 @@
         <v>118</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>258</v>
+        <v>109</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>333</v>
+        <v>104</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>334</v>
+        <v>121</v>
       </c>
       <c r="N28" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>257</v>
+        <v>105</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="R28" s="12" t="s">
         <v>93</v>
@@ -4555,32 +4587,32 @@
         <v>5</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>578</v>
+        <v>328</v>
       </c>
       <c r="U28" s="12" t="str" cm="1">
         <f t="array" ref="U28">_xlfn.REGEXEXTRACT(B28,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>txxx.com</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="str">
         <f>IF(ISBLANK(R29)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>46</v>
+        <v>322</v>
       </c>
       <c r="C29" s="12">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>455</v>
+        <v>331</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>79</v>
@@ -4589,31 +4621,31 @@
         <v>118</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>659</v>
+        <v>258</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>107</v>
+        <v>332</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>486</v>
+        <v>104</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>360</v>
+        <v>156</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>102</v>
+        <v>333</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>110</v>
+        <v>257</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q29" s="12">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="R29" s="12" t="s">
         <v>93</v>
@@ -4622,32 +4654,32 @@
         <v>5</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>246</v>
+        <v>576</v>
       </c>
       <c r="U29" s="12" t="str" cm="1">
         <f t="array" ref="U29">_xlfn.REGEXEXTRACT(B29,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f>IF(ISBLANK(R30)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C30" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>150</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>171</v>
+        <v>454</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>79</v>
@@ -4656,31 +4688,31 @@
         <v>118</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>178</v>
+        <v>657</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>183</v>
+        <v>484</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>179</v>
+        <v>359</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q30" s="12" t="s">
-        <v>79</v>
+        <v>111</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>69</v>
       </c>
       <c r="R30" s="12" t="s">
         <v>93</v>
@@ -4689,65 +4721,65 @@
         <v>5</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="U30" s="12" t="str" cm="1">
         <f t="array" ref="U30">_xlfn.REGEXEXTRACT(B30,"(?&lt;=//)[^/]+")</f>
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
         <f>IF(ISBLANK(R31)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C31" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>412</v>
+        <v>150</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>372</v>
+        <v>171</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>334</v>
+        <v>183</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>414</v>
+        <v>179</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>369</v>
+        <v>180</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="R31" s="12" t="s">
         <v>93</v>
@@ -4756,65 +4788,65 @@
         <v>5</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>413</v>
+        <v>248</v>
       </c>
       <c r="U31" s="12" t="str" cm="1">
         <f t="array" ref="U31">_xlfn.REGEXEXTRACT(B31,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="str">
         <f>IF(ISBLANK(R32)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C32" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>389</v>
+        <v>119</v>
       </c>
       <c r="I32" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>121</v>
-      </c>
       <c r="K32" s="12" t="s">
-        <v>414</v>
+        <v>333</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>334</v>
+        <v>413</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="N32" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="P32" s="12">
-        <v>69</v>
+        <v>368</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="Q32" s="12" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="R32" s="12" t="s">
         <v>93</v>
@@ -4823,65 +4855,65 @@
         <v>5</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="U32" s="12" t="str" cm="1">
         <f t="array" ref="U32">_xlfn.REGEXEXTRACT(B32,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>tube.perverzija.com</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="str">
         <f>IF(ISBLANK(R33)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>304</v>
+        <v>8</v>
       </c>
       <c r="C33" s="12">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>151</v>
+        <v>431</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>444</v>
+        <v>371</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>118</v>
+        <v>388</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>659</v>
+        <v>198</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>137</v>
+        <v>413</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>104</v>
+        <v>333</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="P33" s="12" t="s">
-        <v>573</v>
+        <v>235</v>
+      </c>
+      <c r="P33" s="12">
+        <v>69</v>
       </c>
       <c r="Q33" s="12" t="s">
-        <v>151</v>
+        <v>368</v>
       </c>
       <c r="R33" s="12" t="s">
         <v>93</v>
@@ -4890,32 +4922,32 @@
         <v>5</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="U33" s="12" t="str" cm="1">
         <f t="array" ref="U33">_xlfn.REGEXEXTRACT(B33,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="str">
         <f>IF(ISBLANK(R34)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>30</v>
+        <v>304</v>
       </c>
       <c r="C34" s="12">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>510</v>
+        <v>443</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>79</v>
@@ -4924,10 +4956,10 @@
         <v>118</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>149</v>
+        <v>657</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>137</v>
@@ -4936,19 +4968,19 @@
         <v>104</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="O34" s="12" t="s">
-        <v>157</v>
+        <v>444</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>191</v>
+        <v>571</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="R34" s="12" t="s">
         <v>93</v>
@@ -4957,29 +4989,29 @@
         <v>5</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>511</v>
+        <v>445</v>
       </c>
       <c r="U34" s="12" t="str" cm="1">
         <f t="array" ref="U34">_xlfn.REGEXEXTRACT(B34,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="str">
         <f>IF(ISBLANK(R35)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C35" s="12">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>534</v>
+        <v>134</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>79</v>
@@ -4988,34 +5020,34 @@
         <v>79</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I35" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="L35" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="K35" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="M35" s="12" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="O35" s="12" t="s">
-        <v>535</v>
+        <v>157</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>445</v>
+        <v>191</v>
       </c>
       <c r="Q35" s="12" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="R35" s="12" t="s">
         <v>93</v>
@@ -5024,29 +5056,29 @@
         <v>5</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>536</v>
+        <v>509</v>
       </c>
       <c r="U35" s="12" t="str" cm="1">
         <f t="array" ref="U35">_xlfn.REGEXEXTRACT(B35,"(?&lt;=//)[^/]+")</f>
-        <v>hcbdsm.com</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="str">
         <f>IF(ISBLANK(R36)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C36" s="12">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>151</v>
+        <v>532</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>537</v>
+        <v>453</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>79</v>
@@ -5055,7 +5087,7 @@
         <v>79</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>137</v>
@@ -5064,25 +5096,25 @@
         <v>104</v>
       </c>
       <c r="K36" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L36" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="L36" s="12" t="s">
-        <v>360</v>
-      </c>
       <c r="M36" s="12" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>532</v>
+        <v>474</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>582</v>
+        <v>533</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>501</v>
+        <v>444</v>
       </c>
       <c r="Q36" s="12" t="s">
-        <v>539</v>
+        <v>130</v>
       </c>
       <c r="R36" s="12" t="s">
         <v>93</v>
@@ -5091,29 +5123,29 @@
         <v>5</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="U36" s="12" t="str" cm="1">
         <f t="array" ref="U36">_xlfn.REGEXEXTRACT(B36,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>hcbdsm.com</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="str">
         <f>IF(ISBLANK(R37)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>310</v>
+        <v>27</v>
       </c>
       <c r="C37" s="12">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>408</v>
+        <v>535</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>79</v>
@@ -5125,31 +5157,31 @@
         <v>118</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>493</v>
+        <v>137</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>562</v>
+        <v>162</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>564</v>
+        <v>359</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>164</v>
+        <v>269</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>445</v>
+        <v>580</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>561</v>
+        <v>499</v>
       </c>
       <c r="Q37" s="12" t="s">
-        <v>105</v>
+        <v>537</v>
       </c>
       <c r="R37" s="12" t="s">
         <v>93</v>
@@ -5158,29 +5190,29 @@
         <v>5</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>563</v>
+        <v>536</v>
       </c>
       <c r="U37" s="12" t="str" cm="1">
         <f t="array" ref="U37">_xlfn.REGEXEXTRACT(B37,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="str">
         <f>IF(ISBLANK(R38)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="C38" s="12">
         <v>55</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>330</v>
+        <v>134</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>330</v>
+        <v>407</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>79</v>
@@ -5189,34 +5221,34 @@
         <v>79</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>567</v>
+        <v>491</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>155</v>
+        <v>562</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>532</v>
+        <v>164</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>491</v>
+        <v>563</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>569</v>
+        <v>444</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>519</v>
+        <v>559</v>
       </c>
       <c r="Q38" s="12" t="s">
-        <v>570</v>
+        <v>105</v>
       </c>
       <c r="R38" s="12" t="s">
         <v>93</v>
@@ -5225,29 +5257,29 @@
         <v>5</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="U38" s="12" t="str" cm="1">
         <f t="array" ref="U38">_xlfn.REGEXEXTRACT(B38,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="str">
         <f>IF(ISBLANK(R39)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C39" s="12">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>193</v>
+        <v>329</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>459</v>
+        <v>329</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>79</v>
@@ -5256,34 +5288,34 @@
         <v>79</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>137</v>
+        <v>565</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>97</v>
+        <v>566</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>204</v>
+        <v>530</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>121</v>
+        <v>489</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>169</v>
+        <v>567</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>202</v>
+        <v>517</v>
       </c>
       <c r="Q39" s="12" t="s">
-        <v>79</v>
+        <v>568</v>
       </c>
       <c r="R39" s="12" t="s">
         <v>93</v>
@@ -5292,62 +5324,62 @@
         <v>5</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>251</v>
+        <v>569</v>
       </c>
       <c r="U39" s="12" t="str" cm="1">
         <f t="array" ref="U39">_xlfn.REGEXEXTRACT(B39,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="str">
         <f>IF(ISBLANK(R40)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C40" s="12">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>218</v>
+        <v>458</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="I40" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="N40" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="J40" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="M40" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="N40" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="O40" s="12" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="Q40" s="12" t="s">
         <v>79</v>
@@ -5359,65 +5391,65 @@
         <v>5</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="U40" s="12" t="str" cm="1">
         <f t="array" ref="U40">_xlfn.REGEXEXTRACT(B40,"(?&lt;=//)[^/]+")</f>
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="str">
         <f>IF(ISBLANK(R41)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C41" s="12">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>534</v>
+        <v>134</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>601</v>
+        <v>218</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>486</v>
+        <v>104</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L41" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="M41" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="M41" s="12" t="s">
-        <v>132</v>
-      </c>
       <c r="N41" s="12" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>593</v>
+        <v>79</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="R41" s="12" t="s">
         <v>93</v>
@@ -5426,29 +5458,29 @@
         <v>5</v>
       </c>
       <c r="T41" s="12" t="s">
-        <v>602</v>
+        <v>223</v>
       </c>
       <c r="U41" s="12" t="str" cm="1">
         <f t="array" ref="U41">_xlfn.REGEXEXTRACT(B41,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="str">
         <f>IF(ISBLANK(R42)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C42" s="12">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>151</v>
+        <v>532</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>79</v>
@@ -5457,34 +5489,34 @@
         <v>79</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>508</v>
+        <v>120</v>
       </c>
       <c r="J42" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L42" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="K42" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="M42" s="12" t="s">
-        <v>556</v>
+        <v>132</v>
       </c>
       <c r="N42" s="12" t="s">
         <v>156</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>129</v>
+        <v>591</v>
       </c>
       <c r="Q42" s="12" t="s">
-        <v>369</v>
+        <v>499</v>
       </c>
       <c r="R42" s="12" t="s">
         <v>93</v>
@@ -5493,29 +5525,29 @@
         <v>5</v>
       </c>
       <c r="T42" s="12" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="U42" s="12" t="str" cm="1">
         <f t="array" ref="U42">_xlfn.REGEXEXTRACT(B42,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="str">
         <f>IF(ISBLANK(R43)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C43" s="12">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>151</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>79</v>
@@ -5524,10 +5556,10 @@
         <v>79</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>120</v>
+        <v>506</v>
       </c>
       <c r="J43" s="12" t="s">
         <v>137</v>
@@ -5536,22 +5568,22 @@
         <v>104</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>164</v>
+        <v>554</v>
       </c>
       <c r="N43" s="12" t="s">
         <v>156</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>519</v>
+        <v>191</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="Q43" s="12" t="s">
-        <v>593</v>
+        <v>368</v>
       </c>
       <c r="R43" s="12" t="s">
         <v>93</v>
@@ -5560,65 +5592,65 @@
         <v>5</v>
       </c>
       <c r="T43" s="12" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="U43" s="12" t="str" cm="1">
         <f t="array" ref="U43">_xlfn.REGEXEXTRACT(B43,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="str">
         <f>IF(ISBLANK(R44)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C44" s="12">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I44" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J44" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="J44" s="12" t="s">
-        <v>660</v>
-      </c>
       <c r="K44" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>662</v>
+        <v>164</v>
       </c>
       <c r="N44" s="12" t="s">
-        <v>663</v>
+        <v>156</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>664</v>
+        <v>517</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>593</v>
+        <v>140</v>
       </c>
       <c r="Q44" s="12" t="s">
-        <v>665</v>
+        <v>591</v>
       </c>
       <c r="R44" s="12" t="s">
         <v>93</v>
@@ -5627,32 +5659,32 @@
         <v>5</v>
       </c>
       <c r="T44" s="12" t="s">
-        <v>661</v>
+        <v>612</v>
       </c>
       <c r="U44" s="12" t="str" cm="1">
         <f t="array" ref="U44">_xlfn.REGEXEXTRACT(B44,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="str">
         <f>IF(ISBLANK(R45)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C45" s="12">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>673</v>
+        <v>134</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>674</v>
+        <v>570</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>79</v>
@@ -5661,31 +5693,31 @@
         <v>118</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>494</v>
+        <v>137</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>152</v>
+        <v>658</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>672</v>
+        <v>109</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>676</v>
+        <v>176</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>104</v>
+        <v>660</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>120</v>
+        <v>661</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>593</v>
+        <v>662</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>677</v>
+        <v>591</v>
       </c>
       <c r="Q45" s="12" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="R45" s="12" t="s">
         <v>93</v>
@@ -5694,29 +5726,29 @@
         <v>5</v>
       </c>
       <c r="T45" s="12" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="U45" s="12" t="str" cm="1">
         <f t="array" ref="U45">_xlfn.REGEXEXTRACT(B45,"(?&lt;=//)[^/]+")</f>
-        <v>punishworld.com</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="str">
         <f>IF(ISBLANK(R46)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C46" s="12">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>616</v>
+        <v>671</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>79</v>
@@ -5725,199 +5757,199 @@
         <v>79</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>374</v>
+        <v>118</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>631</v>
+        <v>492</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>79</v>
+        <v>670</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>79</v>
+        <v>674</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="O46" s="12" t="s">
-        <v>631</v>
+        <v>591</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>79</v>
+        <v>675</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>79</v>
+        <v>649</v>
       </c>
       <c r="R46" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S46" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T46" s="12" t="s">
-        <v>628</v>
+        <v>673</v>
       </c>
       <c r="U46" s="12" t="str" cm="1">
         <f t="array" ref="U46">_xlfn.REGEXEXTRACT(B46,"(?&lt;=//)[^/]+")</f>
-        <v>netfapx.net</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>punishworld.com</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="str">
         <f>IF(ISBLANK(R47)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C47" s="12">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>616</v>
+        <v>329</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>621</v>
+        <v>329</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="G47" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>631</v>
+        <v>121</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>79</v>
+        <v>698</v>
       </c>
       <c r="N47" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="O47" s="12" t="s">
-        <v>631</v>
+        <v>699</v>
+      </c>
+      <c r="O47" s="12">
+        <v>69</v>
       </c>
       <c r="P47" s="12" t="s">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="Q47" s="12" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="R47" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S47" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T47" s="12" t="s">
-        <v>632</v>
+        <v>697</v>
       </c>
       <c r="U47" s="12" t="str" cm="1">
         <f t="array" ref="U47">_xlfn.REGEXEXTRACT(B47,"(?&lt;=//)[^/]+")</f>
-        <v>pornzog</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="str">
         <f>IF(ISBLANK(R48)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C48" s="12">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>452</v>
+        <v>682</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>375</v>
+        <v>118</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>123</v>
+        <v>657</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>396</v>
+        <v>681</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>348</v>
+        <v>176</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>79</v>
+        <v>622</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="N48" s="12" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="O48" s="12" t="s">
-        <v>336</v>
+        <v>231</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>131</v>
+        <v>400</v>
       </c>
       <c r="Q48" s="12" t="s">
         <v>130</v>
       </c>
       <c r="R48" s="12" t="s">
-        <v>93</v>
+        <v>688</v>
       </c>
       <c r="S48" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T48" s="12" t="s">
-        <v>335</v>
+        <v>687</v>
       </c>
       <c r="U48" s="12" t="str" cm="1">
         <f t="array" ref="U48">_xlfn.REGEXEXTRACT(B48,"(?&lt;=//)[^/]+")</f>
-        <v>xhamster18.desi</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="str">
         <f>IF(ISBLANK(R49)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>320</v>
+        <v>10</v>
       </c>
       <c r="C49" s="12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>344</v>
+        <v>614</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>170</v>
+        <v>619</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>79</v>
@@ -5926,16 +5958,16 @@
         <v>79</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>123</v>
+        <v>629</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="L49" s="12" t="s">
         <v>79</v>
@@ -5946,14 +5978,14 @@
       <c r="N49" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="O49" s="12">
-        <v>69</v>
-      </c>
-      <c r="P49" s="12">
-        <v>619</v>
+      <c r="O49" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="P49" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="Q49" s="12" t="s">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="R49" s="12" t="s">
         <v>93</v>
@@ -5962,29 +5994,29 @@
         <v>4</v>
       </c>
       <c r="T49" s="12" t="s">
-        <v>345</v>
+        <v>626</v>
       </c>
       <c r="U49" s="12" t="str" cm="1">
         <f t="array" ref="U49">_xlfn.REGEXEXTRACT(B49,"(?&lt;=//)[^/]+")</f>
-        <v>www.porndead.org</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>netfapx.net</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="str">
         <f>IF(ISBLANK(R50)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C50" s="12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>355</v>
+        <v>614</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>353</v>
+        <v>619</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>79</v>
@@ -5993,28 +6025,28 @@
         <v>79</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>118</v>
+        <v>373</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>123</v>
+        <v>629</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>652</v>
+        <v>79</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="N50" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>440</v>
+        <v>629</v>
       </c>
       <c r="P50" s="12" t="s">
         <v>79</v>
@@ -6029,29 +6061,29 @@
         <v>4</v>
       </c>
       <c r="T50" s="12" t="s">
-        <v>356</v>
+        <v>630</v>
       </c>
       <c r="U50" s="12" t="str" cm="1">
         <f t="array" ref="U50">_xlfn.REGEXEXTRACT(B50,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>pornzog</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="str">
         <f>IF(ISBLANK(R51)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="C51" s="12">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>355</v>
+        <v>451</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>79</v>
@@ -6060,19 +6092,19 @@
         <v>79</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>118</v>
+        <v>374</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>120</v>
+        <v>395</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>137</v>
+        <v>347</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="M51" s="12" t="s">
         <v>79</v>
@@ -6081,13 +6113,13 @@
         <v>79</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>151</v>
+        <v>335</v>
       </c>
       <c r="P51" s="12" t="s">
-        <v>357</v>
+        <v>131</v>
       </c>
       <c r="Q51" s="12" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="R51" s="12" t="s">
         <v>93</v>
@@ -6096,65 +6128,65 @@
         <v>4</v>
       </c>
       <c r="T51" s="12" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="U51" s="12" t="str" cm="1">
         <f t="array" ref="U51">_xlfn.REGEXEXTRACT(B51,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>xhamster18.desi</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="str">
         <f>IF(ISBLANK(R52)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="C52" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>134</v>
+        <v>343</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>454</v>
+        <v>170</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>118</v>
+        <v>373</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>114</v>
+        <v>395</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="O52" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="P52" s="12" t="s">
-        <v>131</v>
+        <v>79</v>
+      </c>
+      <c r="O52" s="12">
+        <v>69</v>
+      </c>
+      <c r="P52" s="12">
+        <v>619</v>
       </c>
       <c r="Q52" s="12" t="s">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="R52" s="12" t="s">
         <v>93</v>
@@ -6163,29 +6195,29 @@
         <v>4</v>
       </c>
       <c r="T52" s="12" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="U52" s="12" t="str" cm="1">
         <f t="array" ref="U52">_xlfn.REGEXEXTRACT(B52,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.porndead.org</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="str">
         <f>IF(ISBLANK(R53)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>307</v>
+        <v>4</v>
       </c>
       <c r="C53" s="12">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>79</v>
@@ -6194,28 +6226,28 @@
         <v>79</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>389</v>
+        <v>118</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>164</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>297</v>
+        <v>650</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>403</v>
+        <v>333</v>
       </c>
       <c r="N53" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>191</v>
+        <v>439</v>
       </c>
       <c r="P53" s="12" t="s">
         <v>79</v>
@@ -6230,29 +6262,29 @@
         <v>4</v>
       </c>
       <c r="T53" s="12" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="U53" s="12" t="str" cm="1">
         <f t="array" ref="U53">_xlfn.REGEXEXTRACT(B53,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.me</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="str">
         <f>IF(ISBLANK(R54)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>49</v>
+        <v>313</v>
       </c>
       <c r="C54" s="12">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>166</v>
+        <v>354</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>218</v>
+        <v>353</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>79</v>
@@ -6264,28 +6296,28 @@
         <v>118</v>
       </c>
       <c r="I54" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K54" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="J54" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>168</v>
-      </c>
       <c r="L54" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="N54" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O54" s="12" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>169</v>
+        <v>356</v>
       </c>
       <c r="Q54" s="12" t="s">
         <v>79</v>
@@ -6297,65 +6329,65 @@
         <v>4</v>
       </c>
       <c r="T54" s="12" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="U54" s="12" t="str" cm="1">
         <f t="array" ref="U54">_xlfn.REGEXEXTRACT(B54,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="str">
         <f>IF(ISBLANK(R55)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="C55" s="12">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>368</v>
+        <v>134</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>374</v>
+        <v>118</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>417</v>
+        <v>152</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>418</v>
+        <v>137</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>396</v>
+        <v>114</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="O55" s="12" t="s">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="P55" s="12" t="s">
         <v>131</v>
       </c>
       <c r="Q55" s="12" t="s">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="R55" s="12" t="s">
         <v>93</v>
@@ -6364,29 +6396,29 @@
         <v>4</v>
       </c>
       <c r="T55" s="12" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="U55" s="12" t="str" cm="1">
         <f t="array" ref="U55">_xlfn.REGEXEXTRACT(B55,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="str">
         <f>IF(ISBLANK(R56)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="C56" s="12">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>134</v>
+        <v>396</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>79</v>
@@ -6395,31 +6427,31 @@
         <v>79</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>118</v>
+        <v>388</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>164</v>
+        <v>297</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="N56" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O56" s="12" t="s">
-        <v>439</v>
+        <v>191</v>
       </c>
       <c r="P56" s="12" t="s">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="Q56" s="12" t="s">
         <v>79</v>
@@ -6431,29 +6463,29 @@
         <v>4</v>
       </c>
       <c r="T56" s="12" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="U56" s="12" t="str" cm="1">
         <f t="array" ref="U56">_xlfn.REGEXEXTRACT(B56,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>txxx.me</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="str">
         <f>IF(ISBLANK(R57)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C57" s="12">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>471</v>
+        <v>218</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>79</v>
@@ -6465,31 +6497,31 @@
         <v>118</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>472</v>
+        <v>137</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>473</v>
+        <v>156</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>360</v>
+        <v>168</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>475</v>
+        <v>104</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>478</v>
+        <v>102</v>
       </c>
       <c r="N57" s="12" t="s">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="O57" s="12" t="s">
-        <v>474</v>
+        <v>167</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>440</v>
+        <v>169</v>
       </c>
       <c r="Q57" s="12" t="s">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="R57" s="12" t="s">
         <v>93</v>
@@ -6498,65 +6530,65 @@
         <v>4</v>
       </c>
       <c r="T57" s="12" t="s">
-        <v>477</v>
+        <v>324</v>
       </c>
       <c r="U57" s="12" t="str" cm="1">
         <f t="array" ref="U57">_xlfn.REGEXEXTRACT(B57,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="str">
         <f>IF(ISBLANK(R58)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="C58" s="12">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>482</v>
+        <v>414</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="G58" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>483</v>
+        <v>373</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>162</v>
+        <v>416</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>104</v>
+        <v>417</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>486</v>
+        <v>395</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>102</v>
+        <v>333</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="O58" s="12" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q58" s="12" t="s">
-        <v>487</v>
+        <v>393</v>
       </c>
       <c r="R58" s="12" t="s">
         <v>93</v>
@@ -6565,29 +6597,29 @@
         <v>4</v>
       </c>
       <c r="T58" s="12" t="s">
-        <v>485</v>
+        <v>415</v>
       </c>
       <c r="U58" s="12" t="str" cm="1">
         <f t="array" ref="U58">_xlfn.REGEXEXTRACT(B58,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.com</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>pornxp.com</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="str">
         <f>IF(ISBLANK(R59)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="C59" s="12">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>492</v>
+        <v>435</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>79</v>
@@ -6599,31 +6631,31 @@
         <v>118</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>493</v>
+        <v>109</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="N59" s="12" t="s">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="O59" s="12" t="s">
-        <v>191</v>
+        <v>438</v>
       </c>
       <c r="P59" s="12" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="Q59" s="12" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="R59" s="12" t="s">
         <v>93</v>
@@ -6632,29 +6664,29 @@
         <v>4</v>
       </c>
       <c r="T59" s="12" t="s">
-        <v>497</v>
+        <v>440</v>
       </c>
       <c r="U59" s="12" t="str" cm="1">
         <f t="array" ref="U59">_xlfn.REGEXEXTRACT(B59,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="str">
         <f>IF(ISBLANK(R60)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C60" s="12">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>150</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>79</v>
@@ -6666,31 +6698,31 @@
         <v>118</v>
       </c>
       <c r="I60" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="L60" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="J60" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K60" s="12" t="s">
+      <c r="M60" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="N60" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="O60" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="L60" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="M60" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="N60" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="O60" s="12" t="s">
-        <v>506</v>
-      </c>
       <c r="P60" s="12" t="s">
-        <v>231</v>
+        <v>439</v>
       </c>
       <c r="Q60" s="12" t="s">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="R60" s="12" t="s">
         <v>93</v>
@@ -6699,65 +6731,65 @@
         <v>4</v>
       </c>
       <c r="T60" s="12" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="U60" s="12" t="str" cm="1">
         <f t="array" ref="U60">_xlfn.REGEXEXTRACT(B60,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="str">
         <f>IF(ISBLANK(R61)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>7</v>
+        <v>301</v>
       </c>
       <c r="C61" s="12">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>330</v>
+        <v>480</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="G61" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>118</v>
+        <v>481</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>334</v>
+        <v>162</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>137</v>
+        <v>484</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="O61" s="12" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>544</v>
+        <v>129</v>
       </c>
       <c r="Q61" s="12" t="s">
-        <v>191</v>
+        <v>485</v>
       </c>
       <c r="R61" s="12" t="s">
         <v>93</v>
@@ -6766,29 +6798,29 @@
         <v>4</v>
       </c>
       <c r="T61" s="12" t="s">
-        <v>545</v>
+        <v>483</v>
       </c>
       <c r="U61" s="12" t="str" cm="1">
         <f t="array" ref="U61">_xlfn.REGEXEXTRACT(B61,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.party</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>txxx.com</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="str">
         <f>IF(ISBLANK(R62)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C62" s="12">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>448</v>
+        <v>151</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>218</v>
+        <v>490</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>79</v>
@@ -6797,34 +6829,34 @@
         <v>79</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>553</v>
+        <v>491</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>405</v>
+        <v>492</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>554</v>
+        <v>114</v>
       </c>
       <c r="L62" s="12" t="s">
         <v>137</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>542</v>
+        <v>152</v>
       </c>
       <c r="N62" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="O62" s="12">
-        <v>69</v>
+        <v>494</v>
+      </c>
+      <c r="O62" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>231</v>
+        <v>493</v>
       </c>
       <c r="Q62" s="12" t="s">
-        <v>557</v>
+        <v>151</v>
       </c>
       <c r="R62" s="12" t="s">
         <v>93</v>
@@ -6833,29 +6865,29 @@
         <v>4</v>
       </c>
       <c r="T62" s="12" t="s">
-        <v>555</v>
+        <v>495</v>
       </c>
       <c r="U62" s="12" t="str" cm="1">
         <f t="array" ref="U62">_xlfn.REGEXEXTRACT(B62,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="str">
         <f>IF(ISBLANK(R63)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C63" s="12">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>552</v>
+        <v>503</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>79</v>
@@ -6867,31 +6899,31 @@
         <v>118</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>360</v>
+        <v>471</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>409</v>
+        <v>470</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>102</v>
+        <v>506</v>
       </c>
       <c r="N63" s="12" t="s">
-        <v>156</v>
+        <v>492</v>
       </c>
       <c r="O63" s="12" t="s">
-        <v>558</v>
+        <v>504</v>
       </c>
       <c r="P63" s="12" t="s">
-        <v>559</v>
+        <v>231</v>
       </c>
       <c r="Q63" s="12" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="R63" s="12" t="s">
         <v>93</v>
@@ -6900,29 +6932,29 @@
         <v>4</v>
       </c>
       <c r="T63" s="12" t="s">
-        <v>560</v>
+        <v>507</v>
       </c>
       <c r="U63" s="12" t="str" cm="1">
         <f t="array" ref="U63">_xlfn.REGEXEXTRACT(B63,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="str">
         <f>IF(ISBLANK(R64)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C64" s="12">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>150</v>
+        <v>354</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>458</v>
+        <v>329</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>79</v>
@@ -6934,31 +6966,31 @@
         <v>118</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>155</v>
+        <v>333</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>472</v>
+        <v>137</v>
       </c>
       <c r="L64" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M64" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="N64" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="M64" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="N64" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="O64" s="12" t="s">
         <v>151</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>153</v>
+        <v>542</v>
       </c>
       <c r="Q64" s="12" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="R64" s="12" t="s">
         <v>93</v>
@@ -6967,32 +6999,32 @@
         <v>4</v>
       </c>
       <c r="T64" s="12" t="s">
-        <v>154</v>
+        <v>543</v>
       </c>
       <c r="U64" s="12" t="str" cm="1">
         <f t="array" ref="U64">_xlfn.REGEXEXTRACT(B64,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>spankbang.party</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="str">
         <f>IF(ISBLANK(R65)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C65" s="12">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>134</v>
+        <v>447</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>594</v>
+        <v>218</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>587</v>
+        <v>79</v>
       </c>
       <c r="G65" s="12" t="s">
         <v>79</v>
@@ -7001,31 +7033,31 @@
         <v>119</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>104</v>
+        <v>551</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>597</v>
+        <v>404</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>599</v>
+        <v>552</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>109</v>
+        <v>540</v>
       </c>
       <c r="N65" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="O65" s="12" t="s">
-        <v>131</v>
+        <v>554</v>
+      </c>
+      <c r="O65" s="12">
+        <v>69</v>
       </c>
       <c r="P65" s="12" t="s">
-        <v>369</v>
+        <v>231</v>
       </c>
       <c r="Q65" s="12" t="s">
-        <v>593</v>
+        <v>555</v>
       </c>
       <c r="R65" s="12" t="s">
         <v>93</v>
@@ -7034,65 +7066,65 @@
         <v>4</v>
       </c>
       <c r="T65" s="12" t="s">
-        <v>598</v>
+        <v>553</v>
       </c>
       <c r="U65" s="12" t="str" cm="1">
         <f t="array" ref="U65">_xlfn.REGEXEXTRACT(B65,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="str">
         <f>IF(ISBLANK(R66)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C66" s="12">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>264</v>
+        <v>151</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>460</v>
+        <v>550</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>132</v>
+        <v>359</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>121</v>
+        <v>408</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>122</v>
+        <v>491</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="N66" s="12" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="O66" s="12" t="s">
-        <v>129</v>
+        <v>556</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>130</v>
+        <v>557</v>
       </c>
       <c r="Q66" s="12" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="R66" s="12" t="s">
         <v>93</v>
@@ -7101,32 +7133,32 @@
         <v>4</v>
       </c>
       <c r="T66" s="12" t="s">
-        <v>133</v>
+        <v>558</v>
       </c>
       <c r="U66" s="12" t="str" cm="1">
         <f t="array" ref="U66">_xlfn.REGEXEXTRACT(B66,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="str">
         <f>IF(ISBLANK(R67)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>303</v>
+        <v>31</v>
       </c>
       <c r="C67" s="12">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>326</v>
+        <v>150</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>600</v>
+        <v>457</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>612</v>
+        <v>79</v>
       </c>
       <c r="G67" s="12" t="s">
         <v>79</v>
@@ -7135,31 +7167,31 @@
         <v>118</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>137</v>
+        <v>470</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>532</v>
+        <v>156</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="N67" s="12" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="O67" s="12" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q67" s="12" t="s">
-        <v>593</v>
+        <v>79</v>
       </c>
       <c r="R67" s="12" t="s">
         <v>93</v>
@@ -7168,65 +7200,65 @@
         <v>4</v>
       </c>
       <c r="T67" s="12" t="s">
-        <v>605</v>
+        <v>154</v>
       </c>
       <c r="U67" s="12" t="str" cm="1">
         <f t="array" ref="U67">_xlfn.REGEXEXTRACT(B67,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="str">
         <f>IF(ISBLANK(R68)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C68" s="12">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>194</v>
+        <v>592</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>79</v>
+        <v>585</v>
       </c>
       <c r="G68" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>197</v>
+        <v>595</v>
       </c>
       <c r="K68" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="L68" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N68" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="L68" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="M68" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="N68" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="O68" s="12" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>191</v>
+        <v>368</v>
       </c>
       <c r="Q68" s="12" t="s">
-        <v>198</v>
+        <v>591</v>
       </c>
       <c r="R68" s="12" t="s">
         <v>93</v>
@@ -7235,32 +7267,32 @@
         <v>4</v>
       </c>
       <c r="T68" s="12" t="s">
-        <v>200</v>
+        <v>596</v>
       </c>
       <c r="U68" s="12" t="str" cm="1">
         <f t="array" ref="U68">_xlfn.REGEXEXTRACT(B68,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="str">
         <f>IF(ISBLANK(R69)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="C69" s="12">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G69" s="12" t="s">
         <v>79</v>
@@ -7269,31 +7301,31 @@
         <v>119</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>269</v>
+        <v>121</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="N69" s="12" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="O69" s="12" t="s">
-        <v>593</v>
+        <v>129</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="Q69" s="12" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="R69" s="12" t="s">
         <v>93</v>
@@ -7302,65 +7334,65 @@
         <v>4</v>
       </c>
       <c r="T69" s="12" t="s">
-        <v>268</v>
+        <v>133</v>
       </c>
       <c r="U69" s="12" t="str" cm="1">
         <f t="array" ref="U69">_xlfn.REGEXEXTRACT(B69,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="str">
         <f>IF(ISBLANK(R70)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C70" s="12">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>634</v>
+        <v>325</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>635</v>
+        <v>598</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>79</v>
+        <v>610</v>
       </c>
       <c r="G70" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>374</v>
+        <v>118</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>637</v>
+        <v>149</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>346</v>
+        <v>104</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>494</v>
+        <v>137</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>123</v>
+        <v>530</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>640</v>
+        <v>164</v>
       </c>
       <c r="N70" s="12" t="s">
-        <v>641</v>
+        <v>176</v>
       </c>
       <c r="O70" s="12" t="s">
         <v>191</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>638</v>
+        <v>130</v>
       </c>
       <c r="Q70" s="12" t="s">
-        <v>639</v>
+        <v>591</v>
       </c>
       <c r="R70" s="12" t="s">
         <v>93</v>
@@ -7369,29 +7401,29 @@
         <v>4</v>
       </c>
       <c r="T70" s="12" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
       <c r="U70" s="12" t="str" cm="1">
         <f t="array" ref="U70">_xlfn.REGEXEXTRACT(B70,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="str">
         <f>IF(ISBLANK(R71)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>312</v>
+        <v>65</v>
       </c>
       <c r="C71" s="12">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>616</v>
+        <v>193</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>354</v>
+        <v>194</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>79</v>
@@ -7400,132 +7432,132 @@
         <v>79</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>624</v>
+        <v>196</v>
       </c>
       <c r="J71" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="K71" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="K71" s="12" t="s">
-        <v>104</v>
-      </c>
       <c r="L71" s="12" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="N71" s="12" t="s">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="O71" s="12" t="s">
-        <v>401</v>
+        <v>188</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>501</v>
+        <v>191</v>
       </c>
       <c r="Q71" s="12" t="s">
-        <v>445</v>
+        <v>198</v>
       </c>
       <c r="R71" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S71" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T71" s="12" t="s">
-        <v>625</v>
+        <v>200</v>
       </c>
       <c r="U71" s="12" t="str" cm="1">
         <f t="array" ref="U71">_xlfn.REGEXEXTRACT(B71,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="str">
         <f>IF(ISBLANK(R72)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="C72" s="12">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>616</v>
+        <v>263</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="G72" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>624</v>
+        <v>267</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>626</v>
+        <v>79</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="N72" s="12" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="O72" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="P72" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="P72" s="12" t="s">
-        <v>561</v>
-      </c>
       <c r="Q72" s="12" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="R72" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S72" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T72" s="12" t="s">
-        <v>627</v>
+        <v>268</v>
       </c>
       <c r="U72" s="12" t="str" cm="1">
         <f t="array" ref="U72">_xlfn.REGEXEXTRACT(B72,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>pornxp.com</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="str">
         <f>IF(ISBLANK(R73)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="C73" s="12">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>112</v>
+        <v>632</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>453</v>
+        <v>633</v>
       </c>
       <c r="F73" s="12" t="s">
         <v>79</v>
@@ -7534,132 +7566,132 @@
         <v>79</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>118</v>
+        <v>373</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>103</v>
+        <v>635</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>114</v>
+        <v>345</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>113</v>
+        <v>492</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>79</v>
+        <v>638</v>
       </c>
       <c r="N73" s="12" t="s">
-        <v>79</v>
+        <v>639</v>
       </c>
       <c r="O73" s="12" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>79</v>
+        <v>636</v>
       </c>
       <c r="Q73" s="12" t="s">
-        <v>79</v>
+        <v>637</v>
       </c>
       <c r="R73" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S73" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T73" s="12" t="s">
-        <v>115</v>
+        <v>634</v>
       </c>
       <c r="U73" s="12" t="str" cm="1">
         <f t="array" ref="U73">_xlfn.REGEXEXTRACT(B73,"(?&lt;=//)[^/]+")</f>
-        <v>anyporn.com</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>m.hqporner.com</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="str">
         <f>IF(ISBLANK(R74)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>317</v>
+        <v>71</v>
       </c>
       <c r="C74" s="12">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>337</v>
+        <v>683</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>338</v>
+        <v>684</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>79</v>
+        <v>685</v>
       </c>
       <c r="G74" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>374</v>
+        <v>119</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>103</v>
+        <v>540</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>123</v>
+        <v>492</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>396</v>
+        <v>156</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>269</v>
+        <v>689</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>341</v>
+        <v>690</v>
       </c>
       <c r="N74" s="12" t="s">
-        <v>342</v>
+        <v>691</v>
       </c>
       <c r="O74" s="12" t="s">
-        <v>339</v>
+        <v>191</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>130</v>
+        <v>649</v>
       </c>
       <c r="Q74" s="12" t="s">
-        <v>340</v>
+        <v>517</v>
       </c>
       <c r="R74" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S74" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T74" s="12" t="s">
-        <v>343</v>
+        <v>686</v>
       </c>
       <c r="U74" s="12" t="str" cm="1">
         <f t="array" ref="U74">_xlfn.REGEXEXTRACT(B74,"(?&lt;=//)[^/]+")</f>
-        <v>www.tnaflix.com</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>punishbang.com</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="str">
         <f>IF(ISBLANK(R75)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C75" s="12">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="F75" s="12" t="s">
         <v>79</v>
@@ -7671,98 +7703,98 @@
         <v>118</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>156</v>
+        <v>657</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>120</v>
+        <v>661</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>360</v>
+        <v>492</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>146</v>
+        <v>693</v>
       </c>
       <c r="N75" s="12" t="s">
-        <v>79</v>
+        <v>694</v>
       </c>
       <c r="O75" s="12" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>79</v>
+        <v>695</v>
       </c>
       <c r="Q75" s="12" t="s">
-        <v>79</v>
+        <v>696</v>
       </c>
       <c r="R75" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S75" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T75" s="12" t="s">
-        <v>361</v>
+        <v>692</v>
       </c>
       <c r="U75" s="12" t="str" cm="1">
         <f t="array" ref="U75">_xlfn.REGEXEXTRACT(B75,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>punishbang.com</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="str">
         <f>IF(ISBLANK(R76)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>227</v>
+        <v>312</v>
       </c>
       <c r="C76" s="12">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>230</v>
+        <v>614</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>228</v>
+        <v>353</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="G76" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>258</v>
+        <v>622</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>259</v>
+        <v>137</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>261</v>
+        <v>104</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>262</v>
+        <v>156</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="N76" s="12" t="s">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="O76" s="12" t="s">
-        <v>257</v>
+        <v>400</v>
       </c>
       <c r="P76" s="12" t="s">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="Q76" s="12" t="s">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="R76" s="12" t="s">
         <v>93</v>
@@ -7771,29 +7803,29 @@
         <v>3</v>
       </c>
       <c r="T76" s="12" t="s">
-        <v>260</v>
+        <v>623</v>
       </c>
       <c r="U76" s="12" t="str" cm="1">
         <f t="array" ref="U76">_xlfn.REGEXEXTRACT(B76,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="str">
         <f>IF(ISBLANK(R77)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="C77" s="12">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>134</v>
+        <v>614</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>79</v>
@@ -7805,31 +7837,31 @@
         <v>118</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>156</v>
+        <v>622</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>348</v>
+        <v>137</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>109</v>
+        <v>624</v>
       </c>
       <c r="M77" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="N77" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="N77" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="O77" s="12" t="s">
-        <v>364</v>
+        <v>191</v>
       </c>
       <c r="P77" s="12" t="s">
-        <v>235</v>
+        <v>559</v>
       </c>
       <c r="Q77" s="12" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="R77" s="12" t="s">
         <v>93</v>
@@ -7838,29 +7870,29 @@
         <v>3</v>
       </c>
       <c r="T77" s="12" t="s">
-        <v>365</v>
+        <v>625</v>
       </c>
       <c r="U77" s="12" t="str" cm="1">
         <f t="array" ref="U77">_xlfn.REGEXEXTRACT(B77,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="str">
         <f>IF(ISBLANK(R78)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C78" s="12">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>368</v>
+        <v>112</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>170</v>
+        <v>452</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>79</v>
@@ -7869,16 +7901,16 @@
         <v>79</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>374</v>
+        <v>118</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>396</v>
+        <v>114</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>334</v>
+        <v>113</v>
       </c>
       <c r="L78" s="12" t="s">
         <v>79</v>
@@ -7890,13 +7922,13 @@
         <v>79</v>
       </c>
       <c r="O78" s="12" t="s">
-        <v>339</v>
+        <v>110</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="Q78" s="12" t="s">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="R78" s="12" t="s">
         <v>93</v>
@@ -7905,65 +7937,65 @@
         <v>3</v>
       </c>
       <c r="T78" s="12" t="s">
-        <v>370</v>
+        <v>115</v>
       </c>
       <c r="U78" s="12" t="str" cm="1">
         <f t="array" ref="U78">_xlfn.REGEXEXTRACT(B78,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>anyporn.com</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="str">
         <f>IF(ISBLANK(R79)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c r="C79" s="12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="F79" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H79" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="G79" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>389</v>
-      </c>
       <c r="I79" s="12" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>164</v>
+        <v>395</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>387</v>
+        <v>269</v>
       </c>
       <c r="M79" s="12" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="N79" s="12" t="s">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="O79" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="P79" s="12">
-        <v>69</v>
+        <v>338</v>
+      </c>
+      <c r="P79" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="Q79" s="12" t="s">
-        <v>140</v>
+        <v>339</v>
       </c>
       <c r="R79" s="12" t="s">
         <v>93</v>
@@ -7972,29 +8004,29 @@
         <v>3</v>
       </c>
       <c r="T79" s="12" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="U79" s="12" t="str" cm="1">
         <f t="array" ref="U79">_xlfn.REGEXEXTRACT(B79,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.tnaflix.com</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="str">
         <f>IF(ISBLANK(R80)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C80" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>79</v>
@@ -8003,34 +8035,34 @@
         <v>79</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>375</v>
+        <v>118</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>393</v>
+        <v>120</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>396</v>
+        <v>137</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="M80" s="12" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="N80" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O80" s="12" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="Q80" s="12" t="s">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="R80" s="12" t="s">
         <v>93</v>
@@ -8039,32 +8071,32 @@
         <v>3</v>
       </c>
       <c r="T80" s="12" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="U80" s="12" t="str" cm="1">
         <f t="array" ref="U80">_xlfn.REGEXEXTRACT(B80,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="str">
         <f>IF(ISBLANK(R81)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="C81" s="12">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>230</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>400</v>
+        <v>229</v>
       </c>
       <c r="G81" s="12" t="s">
         <v>79</v>
@@ -8073,16 +8105,16 @@
         <v>119</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>404</v>
+        <v>258</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>405</v>
+        <v>259</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>407</v>
+        <v>261</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="M81" s="12" t="s">
         <v>79</v>
@@ -8091,10 +8123,10 @@
         <v>79</v>
       </c>
       <c r="O81" s="12" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="Q81" s="12" t="s">
         <v>79</v>
@@ -8106,29 +8138,29 @@
         <v>3</v>
       </c>
       <c r="T81" s="12" t="s">
-        <v>406</v>
+        <v>260</v>
       </c>
       <c r="U81" s="12" t="str" cm="1">
         <f t="array" ref="U81">_xlfn.REGEXEXTRACT(B81,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="str">
         <f>IF(ISBLANK(R82)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="C82" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>419</v>
+        <v>134</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>79</v>
@@ -8137,34 +8169,34 @@
         <v>79</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>374</v>
+        <v>118</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>269</v>
+        <v>347</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>424</v>
+        <v>137</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="M82" s="12" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="N82" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O82" s="12" t="s">
-        <v>422</v>
+        <v>363</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>369</v>
+        <v>235</v>
       </c>
       <c r="Q82" s="12" t="s">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="R82" s="12" t="s">
         <v>93</v>
@@ -8173,26 +8205,26 @@
         <v>3</v>
       </c>
       <c r="T82" s="12" t="s">
-        <v>423</v>
+        <v>364</v>
       </c>
       <c r="U82" s="12" t="str" cm="1">
         <f t="array" ref="U82">_xlfn.REGEXEXTRACT(B82,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="str">
         <f>IF(ISBLANK(R83)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" s="12">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>442</v>
+        <v>367</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>170</v>
@@ -8204,19 +8236,19 @@
         <v>79</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>351</v>
+        <v>123</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>123</v>
+        <v>395</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>121</v>
+        <v>333</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="M83" s="12" t="s">
         <v>79</v>
@@ -8225,13 +8257,13 @@
         <v>79</v>
       </c>
       <c r="O83" s="12" t="s">
-        <v>439</v>
+        <v>338</v>
       </c>
       <c r="P83" s="12" t="s">
         <v>130</v>
       </c>
       <c r="Q83" s="12" t="s">
-        <v>131</v>
+        <v>368</v>
       </c>
       <c r="R83" s="12" t="s">
         <v>93</v>
@@ -8240,96 +8272,96 @@
         <v>3</v>
       </c>
       <c r="T83" s="12" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="U83" s="12" t="str" cm="1">
         <f t="array" ref="U83">_xlfn.REGEXEXTRACT(B83,"(?&lt;=//)[^/]+")</f>
         <v>www.pornhub.com</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="str">
         <f>IF(ISBLANK(R84)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="C84" s="12">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>206</v>
+        <v>370</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>224</v>
+        <v>371</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="G84" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>117</v>
+        <v>388</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>237</v>
+        <v>386</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="N84" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O84" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="P84" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="P84" s="12">
+        <v>69</v>
+      </c>
+      <c r="Q84" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="Q84" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="R84" s="12" t="s">
-        <v>236</v>
+        <v>93</v>
       </c>
       <c r="S84" s="13">
         <v>3</v>
       </c>
       <c r="T84" s="12" t="s">
-        <v>254</v>
+        <v>385</v>
       </c>
       <c r="U84" s="12" t="str" cm="1">
         <f t="array" ref="U84">_xlfn.REGEXEXTRACT(B84,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>tube.perverzija.com</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="str">
         <f>IF(ISBLANK(R85)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>306</v>
+        <v>44</v>
       </c>
       <c r="C85" s="12">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>479</v>
+        <v>389</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>79</v>
@@ -8341,16 +8373,16 @@
         <v>374</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>480</v>
+        <v>103</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>123</v>
+        <v>392</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>334</v>
+        <v>394</v>
       </c>
       <c r="M85" s="12" t="s">
         <v>79</v>
@@ -8359,13 +8391,13 @@
         <v>79</v>
       </c>
       <c r="O85" s="12" t="s">
-        <v>339</v>
+        <v>191</v>
       </c>
       <c r="P85" s="12" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="Q85" s="12" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="R85" s="12" t="s">
         <v>93</v>
@@ -8374,65 +8406,65 @@
         <v>3</v>
       </c>
       <c r="T85" s="12" t="s">
-        <v>481</v>
+        <v>391</v>
       </c>
       <c r="U85" s="12" t="str" cm="1">
         <f t="array" ref="U85">_xlfn.REGEXEXTRACT(B85,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="str">
         <f>IF(ISBLANK(R86)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C86" s="12">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>326</v>
+        <v>230</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>503</v>
+        <v>230</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="G86" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>480</v>
+        <v>403</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>137</v>
+        <v>404</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>156</v>
+        <v>406</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="M86" s="12" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N86" s="12" t="s">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="O86" s="12" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="P86" s="12" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="Q86" s="12" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="R86" s="12" t="s">
         <v>93</v>
@@ -8441,65 +8473,65 @@
         <v>3</v>
       </c>
       <c r="T86" s="12" t="s">
-        <v>504</v>
+        <v>405</v>
       </c>
       <c r="U86" s="12" t="str" cm="1">
         <f t="array" ref="U86">_xlfn.REGEXEXTRACT(B86,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="str">
         <f>IF(ISBLANK(R87)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>9</v>
+        <v>321</v>
       </c>
       <c r="C87" s="12">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>330</v>
+        <v>418</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>516</v>
+        <v>79</v>
       </c>
       <c r="G87" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>399</v>
+        <v>123</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>518</v>
+        <v>269</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>121</v>
+        <v>423</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>351</v>
+        <v>164</v>
       </c>
       <c r="M87" s="12" t="s">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="N87" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="O87" s="12">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="O87" s="12" t="s">
+        <v>421</v>
       </c>
       <c r="P87" s="12" t="s">
-        <v>130</v>
+        <v>368</v>
       </c>
       <c r="Q87" s="12" t="s">
-        <v>191</v>
+        <v>400</v>
       </c>
       <c r="R87" s="12" t="s">
         <v>93</v>
@@ -8508,29 +8540,29 @@
         <v>3</v>
       </c>
       <c r="T87" s="12" t="s">
-        <v>517</v>
+        <v>422</v>
       </c>
       <c r="U87" s="12" t="str" cm="1">
         <f t="array" ref="U87">_xlfn.REGEXEXTRACT(B87,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>pornxp.com</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="str">
         <f>IF(ISBLANK(R88)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="C88" s="12">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>193</v>
+        <v>441</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="F88" s="12" t="s">
         <v>79</v>
@@ -8539,34 +8571,34 @@
         <v>79</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>195</v>
+        <v>373</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>214</v>
+        <v>123</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>548</v>
+        <v>121</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>215</v>
+        <v>395</v>
       </c>
       <c r="M88" s="12" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="N88" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O88" s="12" t="s">
-        <v>191</v>
+        <v>438</v>
       </c>
       <c r="P88" s="12" t="s">
         <v>130</v>
       </c>
       <c r="Q88" s="12" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="R88" s="12" t="s">
         <v>93</v>
@@ -8575,29 +8607,29 @@
         <v>3</v>
       </c>
       <c r="T88" s="12" t="s">
-        <v>253</v>
+        <v>442</v>
       </c>
       <c r="U88" s="12" t="str" cm="1">
         <f t="array" ref="U88">_xlfn.REGEXEXTRACT(B88,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhits.com</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="str">
         <f>IF(ISBLANK(R89)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>546</v>
+        <v>222</v>
       </c>
       <c r="C89" s="12">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>547</v>
+        <v>224</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>79</v>
@@ -8606,101 +8638,101 @@
         <v>79</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>548</v>
+        <v>234</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>549</v>
+        <v>176</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>97</v>
+        <v>237</v>
       </c>
       <c r="M89" s="12" t="s">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="N89" s="12" t="s">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="O89" s="12" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="P89" s="12" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Q89" s="12" t="s">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="R89" s="12" t="s">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="S89" s="13">
         <v>3</v>
       </c>
       <c r="T89" s="12" t="s">
-        <v>550</v>
+        <v>254</v>
       </c>
       <c r="U89" s="12" t="str" cm="1">
         <f t="array" ref="U89">_xlfn.REGEXEXTRACT(B89,"(?&lt;=//)[^/]+")</f>
-        <v>pervtube.net</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="str">
         <f>IF(ISBLANK(R90)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>66</v>
+        <v>306</v>
       </c>
       <c r="C90" s="12">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>461</v>
+        <v>390</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="G90" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>117</v>
+        <v>373</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>114</v>
+        <v>478</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>189</v>
+        <v>395</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="M90" s="12" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="N90" s="12" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="O90" s="12" t="s">
-        <v>105</v>
+        <v>338</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="Q90" s="12" t="s">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="R90" s="12" t="s">
         <v>93</v>
@@ -8709,29 +8741,29 @@
         <v>3</v>
       </c>
       <c r="T90" s="12" t="s">
-        <v>250</v>
+        <v>479</v>
       </c>
       <c r="U90" s="12" t="str" cm="1">
         <f t="array" ref="U90">_xlfn.REGEXEXTRACT(B90,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="str">
         <f>IF(ISBLANK(R91)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>316</v>
+        <v>28</v>
       </c>
       <c r="C91" s="12">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>134</v>
+        <v>325</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>408</v>
+        <v>501</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>79</v>
@@ -8743,31 +8775,31 @@
         <v>118</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>360</v>
+        <v>478</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>592</v>
+        <v>156</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="M91" s="12" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="N91" s="12" t="s">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="O91" s="12" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="P91" s="12" t="s">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="Q91" s="12" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="R91" s="12" t="s">
         <v>93</v>
@@ -8776,65 +8808,65 @@
         <v>3</v>
       </c>
       <c r="T91" s="12" t="s">
-        <v>566</v>
+        <v>502</v>
       </c>
       <c r="U91" s="12" t="str" cm="1">
         <f t="array" ref="U91">_xlfn.REGEXEXTRACT(B91,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="str">
         <f>IF(ISBLANK(R92)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C92" s="12">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>265</v>
+        <v>329</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>463</v>
+        <v>371</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>79</v>
+        <v>514</v>
       </c>
       <c r="G92" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>118</v>
+        <v>388</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>142</v>
+        <v>398</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>143</v>
+        <v>516</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>145</v>
+        <v>350</v>
       </c>
       <c r="M92" s="12" t="s">
-        <v>146</v>
+        <v>395</v>
       </c>
       <c r="N92" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="O92" s="12" t="s">
-        <v>144</v>
+        <v>333</v>
+      </c>
+      <c r="O92" s="12">
+        <v>69</v>
       </c>
       <c r="P92" s="12" t="s">
-        <v>495</v>
+        <v>130</v>
       </c>
       <c r="Q92" s="12" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="R92" s="12" t="s">
         <v>93</v>
@@ -8843,29 +8875,29 @@
         <v>3</v>
       </c>
       <c r="T92" s="12" t="s">
-        <v>245</v>
+        <v>515</v>
       </c>
       <c r="U92" s="12" t="str" cm="1">
         <f t="array" ref="U92">_xlfn.REGEXEXTRACT(B92,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="str">
         <f>IF(ISBLANK(R93)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="C93" s="12">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>642</v>
+        <v>213</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>79</v>
@@ -8874,34 +8906,34 @@
         <v>79</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>583</v>
+        <v>214</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>645</v>
+        <v>546</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>648</v>
+        <v>97</v>
       </c>
       <c r="N93" s="12" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="O93" s="12" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="P93" s="12" t="s">
-        <v>643</v>
+        <v>130</v>
       </c>
       <c r="Q93" s="12" t="s">
-        <v>646</v>
+        <v>79</v>
       </c>
       <c r="R93" s="12" t="s">
         <v>93</v>
@@ -8910,29 +8942,29 @@
         <v>3</v>
       </c>
       <c r="T93" s="12" t="s">
-        <v>647</v>
+        <v>253</v>
       </c>
       <c r="U93" s="12" t="str" cm="1">
         <f t="array" ref="U93">_xlfn.REGEXEXTRACT(B93,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.pornhits.com</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="str">
         <f>IF(ISBLANK(R94)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>270</v>
+        <v>544</v>
       </c>
       <c r="C94" s="12">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>272</v>
+        <v>545</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>79</v>
@@ -8944,65 +8976,65 @@
         <v>195</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>274</v>
+        <v>546</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>275</v>
+        <v>547</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M94" s="12" t="s">
-        <v>277</v>
+        <v>530</v>
       </c>
       <c r="N94" s="12" t="s">
-        <v>278</v>
+        <v>549</v>
       </c>
       <c r="O94" s="12" t="s">
         <v>191</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="Q94" s="12" t="s">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="R94" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S94" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T94" s="12" t="s">
-        <v>276</v>
+        <v>548</v>
       </c>
       <c r="U94" s="12" t="str" cm="1">
         <f t="array" ref="U94">_xlfn.REGEXEXTRACT(B94,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>pervtube.net</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="str">
         <f>IF(ISBLANK(R95)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>279</v>
+        <v>66</v>
       </c>
       <c r="C95" s="12">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>280</v>
+        <v>460</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>281</v>
+        <v>466</v>
       </c>
       <c r="G95" s="12" t="s">
         <v>79</v>
@@ -9011,25 +9043,25 @@
         <v>117</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>659</v>
+        <v>114</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>282</v>
+        <v>137</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="N95" s="12" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="O95" s="12" t="s">
-        <v>283</v>
+        <v>105</v>
       </c>
       <c r="P95" s="12" t="s">
         <v>191</v>
@@ -9041,53 +9073,53 @@
         <v>93</v>
       </c>
       <c r="S95" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T95" s="12" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="U95" s="12" t="str" cm="1">
         <f t="array" ref="U95">_xlfn.REGEXEXTRACT(B95,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="str">
         <f>IF(ISBLANK(R96)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C96" s="12">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>230</v>
+        <v>134</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>230</v>
+        <v>407</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="G96" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>136</v>
+        <v>359</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>362</v>
+        <v>104</v>
       </c>
       <c r="K96" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="L96" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="L96" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="M96" s="12" t="s">
         <v>79</v>
@@ -9108,32 +9140,32 @@
         <v>93</v>
       </c>
       <c r="S96" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T96" s="12" t="s">
-        <v>363</v>
+        <v>564</v>
       </c>
       <c r="U96" s="12" t="str" cm="1">
         <f t="array" ref="U96">_xlfn.REGEXEXTRACT(B96,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="str">
         <f>IF(ISBLANK(R97)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>309</v>
+        <v>38</v>
       </c>
       <c r="C97" s="12">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>134</v>
+        <v>265</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>79</v>
@@ -9145,62 +9177,62 @@
         <v>118</v>
       </c>
       <c r="I97" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K97" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="J97" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="K97" s="12" t="s">
-        <v>396</v>
-      </c>
       <c r="L97" s="12" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="M97" s="12" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="N97" s="12" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="O97" s="12" t="s">
-        <v>580</v>
+        <v>144</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="Q97" s="12" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="R97" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S97" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T97" s="12" t="s">
-        <v>410</v>
+        <v>245</v>
       </c>
       <c r="U97" s="12" t="str" cm="1">
         <f t="array" ref="U97">_xlfn.REGEXEXTRACT(B97,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="str">
         <f>IF(ISBLANK(R98)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C98" s="12">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>150</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>218</v>
+        <v>640</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>79</v>
@@ -9209,101 +9241,101 @@
         <v>79</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>104</v>
+        <v>581</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>489</v>
+        <v>643</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="M98" s="12" t="s">
-        <v>490</v>
+        <v>646</v>
       </c>
       <c r="N98" s="12" t="s">
-        <v>491</v>
+        <v>102</v>
       </c>
       <c r="O98" s="12" t="s">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>394</v>
+        <v>641</v>
       </c>
       <c r="Q98" s="12" t="s">
-        <v>490</v>
+        <v>644</v>
       </c>
       <c r="R98" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S98" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T98" s="12" t="s">
-        <v>488</v>
+        <v>645</v>
       </c>
       <c r="U98" s="12" t="str" cm="1">
         <f t="array" ref="U98">_xlfn.REGEXEXTRACT(B98,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="str">
         <f>IF(ISBLANK(R99)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="C99" s="12">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>524</v>
+        <v>272</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="G99" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>526</v>
+        <v>274</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>121</v>
+        <v>275</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="M99" s="12" t="s">
-        <v>528</v>
+        <v>277</v>
       </c>
       <c r="N99" s="12" t="s">
-        <v>529</v>
+        <v>278</v>
       </c>
       <c r="O99" s="12" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="P99" s="12" t="s">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="Q99" s="12" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="R99" s="12" t="s">
         <v>93</v>
@@ -9312,65 +9344,65 @@
         <v>2</v>
       </c>
       <c r="T99" s="12" t="s">
-        <v>527</v>
+        <v>276</v>
       </c>
       <c r="U99" s="12" t="str" cm="1">
         <f t="array" ref="U99">_xlfn.REGEXEXTRACT(B99,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="str">
         <f>IF(ISBLANK(R100)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>73</v>
+        <v>279</v>
       </c>
       <c r="C100" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>589</v>
+        <v>329</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>590</v>
+        <v>280</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="G100" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>104</v>
+        <v>657</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>149</v>
+        <v>282</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="M100" s="12" t="s">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="N100" s="12" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="O100" s="12" t="s">
-        <v>445</v>
+        <v>283</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>422</v>
+        <v>191</v>
       </c>
       <c r="Q100" s="12" t="s">
-        <v>593</v>
+        <v>79</v>
       </c>
       <c r="R100" s="12" t="s">
         <v>93</v>
@@ -9379,32 +9411,32 @@
         <v>2</v>
       </c>
       <c r="T100" s="12" t="s">
-        <v>591</v>
+        <v>284</v>
       </c>
       <c r="U100" s="12" t="str" cm="1">
         <f t="array" ref="U100">_xlfn.REGEXEXTRACT(B100,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="str">
         <f>IF(ISBLANK(R101)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C101" s="12">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>502</v>
+        <v>230</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>462</v>
+        <v>230</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>586</v>
+        <v>229</v>
       </c>
       <c r="G101" s="12" t="s">
         <v>79</v>
@@ -9413,16 +9445,16 @@
         <v>119</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>486</v>
+        <v>136</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>132</v>
+        <v>361</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>360</v>
+        <v>137</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="M101" s="12" t="s">
         <v>79</v>
@@ -9431,13 +9463,13 @@
         <v>79</v>
       </c>
       <c r="O101" s="12" t="s">
-        <v>595</v>
+        <v>191</v>
       </c>
       <c r="P101" s="12" t="s">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="Q101" s="12" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="R101" s="12" t="s">
         <v>93</v>
@@ -9446,29 +9478,29 @@
         <v>2</v>
       </c>
       <c r="T101" s="12" t="s">
-        <v>596</v>
+        <v>362</v>
       </c>
       <c r="U101" s="12" t="str" cm="1">
         <f t="array" ref="U101">_xlfn.REGEXEXTRACT(B101,"(?&lt;=//)[^/]+")</f>
-        <v>www.omg.xxx</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="str">
         <f>IF(ISBLANK(R102)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C102" s="12">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>607</v>
+        <v>134</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>613</v>
+        <v>407</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>79</v>
@@ -9477,34 +9509,34 @@
         <v>79</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>374</v>
+        <v>118</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>346</v>
+        <v>137</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>608</v>
+        <v>408</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>609</v>
+        <v>395</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="M102" s="12" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="N102" s="12" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="O102" s="12" t="s">
-        <v>110</v>
+        <v>578</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="Q102" s="12" t="s">
-        <v>611</v>
+        <v>79</v>
       </c>
       <c r="R102" s="12" t="s">
         <v>93</v>
@@ -9513,29 +9545,29 @@
         <v>2</v>
       </c>
       <c r="T102" s="12" t="s">
-        <v>610</v>
+        <v>409</v>
       </c>
       <c r="U102" s="12" t="str" cm="1">
         <f t="array" ref="U102">_xlfn.REGEXEXTRACT(B102,"(?&lt;=//)[^/]+")</f>
-        <v>www.peekvids.com</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="str">
         <f>IF(ISBLANK(R103)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C103" s="12">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="F103" s="12" t="s">
         <v>79</v>
@@ -9544,68 +9576,68 @@
         <v>79</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>374</v>
+        <v>119</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>346</v>
+        <v>156</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>347</v>
+        <v>104</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>348</v>
+        <v>487</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="M103" s="12" t="s">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="N103" s="12" t="s">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="O103" s="12" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="P103" s="12" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
       <c r="Q103" s="12" t="s">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="R103" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S103" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T103" s="12" t="s">
-        <v>352</v>
+        <v>486</v>
       </c>
       <c r="U103" s="12" t="str" cm="1">
         <f t="array" ref="U103">_xlfn.REGEXEXTRACT(B103,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="str">
         <f>IF(ISBLANK(R104)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="C104" s="12">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>228</v>
+        <v>522</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>229</v>
+        <v>523</v>
       </c>
       <c r="G104" s="12" t="s">
         <v>79</v>
@@ -9614,62 +9646,62 @@
         <v>119</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>232</v>
+        <v>524</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="M104" s="12" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="N104" s="12" t="s">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="O104" s="12" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="Q104" s="12" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="R104" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S104" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T104" s="12" t="s">
-        <v>233</v>
+        <v>525</v>
       </c>
       <c r="U104" s="12" t="str" cm="1">
         <f t="array" ref="U104">_xlfn.REGEXEXTRACT(B104,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>m.hqporner.com</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="str">
         <f>IF(ISBLANK(R105)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>286</v>
+        <v>73</v>
       </c>
       <c r="C105" s="12">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>230</v>
+        <v>587</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>230</v>
+        <v>588</v>
       </c>
       <c r="F105" s="12" t="s">
         <v>79</v>
@@ -9678,231 +9710,287 @@
         <v>79</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>512</v>
+        <v>104</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="M105" s="12" t="s">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="N105" s="12" t="s">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="O105" s="12" t="s">
-        <v>257</v>
+        <v>444</v>
       </c>
       <c r="P105" s="12" t="s">
-        <v>191</v>
+        <v>421</v>
       </c>
       <c r="Q105" s="12" t="s">
-        <v>79</v>
+        <v>591</v>
       </c>
       <c r="R105" s="12" t="s">
         <v>93</v>
       </c>
       <c r="S105" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T105" s="12" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
       <c r="U105" s="12" t="str" cm="1">
         <f t="array" ref="U105">_xlfn.REGEXEXTRACT(B105,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="str">
-        <f t="shared" ref="A106:A110" si="0">IF(ISBLANK(R106)=TRUE,"Pending","Done")</f>
-        <v>Pending</v>
+        <f>IF(ISBLANK(R106)=TRUE,"Pending","Done")</f>
+        <v>Done</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>21</v>
+        <v>315</v>
       </c>
       <c r="C106" s="12">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>330</v>
+        <v>461</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>330</v>
+        <v>584</v>
       </c>
       <c r="G106" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
-      <c r="N106" s="12"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="12"/>
-      <c r="R106" s="12"/>
-      <c r="S106" s="13"/>
-      <c r="T106" s="12"/>
+        <v>119</v>
+      </c>
+      <c r="I106" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="J106" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K106" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="L106" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="M106" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N106" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O106" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="P106" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q106" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="R106" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="S106" s="13">
+        <v>2</v>
+      </c>
+      <c r="T106" s="12" t="s">
+        <v>594</v>
+      </c>
       <c r="U106" s="12" t="str" cm="1">
         <f t="array" ref="U106">_xlfn.REGEXEXTRACT(B106,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>www.omg.xxx</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Pending</v>
+        <f>IF(ISBLANK(R107)=TRUE,"Pending","Done")</f>
+        <v>Done</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>23</v>
+        <v>300</v>
       </c>
       <c r="C107" s="12">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>684</v>
+        <v>605</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>330</v>
+        <v>611</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="G107" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>118</v>
+        <v>373</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>659</v>
+        <v>345</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
-      <c r="N107" s="12"/>
-      <c r="O107" s="12"/>
-      <c r="P107" s="12"/>
-      <c r="Q107" s="12"/>
-      <c r="R107" s="12"/>
-      <c r="S107" s="13"/>
+        <v>606</v>
+      </c>
+      <c r="K107" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L107" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="M107" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="N107" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O107" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="P107" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q107" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="R107" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="S107" s="13">
+        <v>2</v>
+      </c>
       <c r="T107" s="12" t="s">
-        <v>79</v>
+        <v>608</v>
       </c>
       <c r="U107" s="12" t="str" cm="1">
         <f t="array" ref="U107">_xlfn.REGEXEXTRACT(B107,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>www.peekvids.com</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Pending</v>
+        <f>IF(ISBLANK(R108)=TRUE,"Pending","Done")</f>
+        <v>Done</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C108" s="12">
+        <v>11</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="E108" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D108" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>686</v>
-      </c>
       <c r="F108" s="12" t="s">
-        <v>687</v>
+        <v>79</v>
       </c>
       <c r="G108" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>119</v>
+        <v>373</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>542</v>
+        <v>345</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
+        <v>346</v>
+      </c>
+      <c r="K108" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="L108" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="M108" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N108" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="O108" s="12" t="s">
-        <v>191</v>
+        <v>348</v>
       </c>
       <c r="P108" s="12" t="s">
-        <v>651</v>
-      </c>
-      <c r="Q108" s="12"/>
-      <c r="R108" s="12"/>
-      <c r="S108" s="13"/>
+        <v>338</v>
+      </c>
+      <c r="Q108" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R108" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="S108" s="13">
+        <v>1</v>
+      </c>
       <c r="T108" s="12" t="s">
-        <v>688</v>
+        <v>351</v>
       </c>
       <c r="U108" s="12" t="str" cm="1">
         <f t="array" ref="U108">_xlfn.REGEXEXTRACT(B108,"(?&lt;=//)[^/]+")</f>
-        <v>punishbang.com</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R109)=TRUE,"Pending","Done")</f>
         <v>Done</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>666</v>
+        <v>225</v>
       </c>
       <c r="C109" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>330</v>
+        <v>228</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="G109" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>679</v>
+        <v>197</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>645</v>
+        <v>232</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>680</v>
+        <v>149</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="M109" s="12" t="s">
         <v>79</v>
@@ -9911,77 +9999,98 @@
         <v>79</v>
       </c>
       <c r="O109" s="12" t="s">
-        <v>445</v>
+        <v>231</v>
       </c>
       <c r="P109" s="12" t="s">
-        <v>681</v>
+        <v>79</v>
       </c>
       <c r="Q109" s="12" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="R109" s="12" t="s">
-        <v>678</v>
+        <v>93</v>
       </c>
       <c r="S109" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T109" s="12" t="s">
-        <v>682</v>
+        <v>233</v>
       </c>
       <c r="U109" s="12" t="str" cm="1">
         <f t="array" ref="U109">_xlfn.REGEXEXTRACT(B109,"(?&lt;=//)[^/]+")</f>
-        <v>punishworld.com</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Pending</v>
+        <f>IF(ISBLANK(R110)=TRUE,"Pending","Done")</f>
+        <v>Done</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>70</v>
+        <v>286</v>
       </c>
       <c r="C110" s="12">
-        <v>182</v>
-      </c>
-      <c r="D110" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>230</v>
+      </c>
       <c r="E110" s="12" t="s">
-        <v>470</v>
+        <v>230</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="12"/>
-      <c r="Q110" s="12"/>
-      <c r="R110" s="12"/>
-      <c r="S110" s="13"/>
+        <v>79</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="J110" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K110" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L110" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M110" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N110" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O110" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="P110" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q110" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R110" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="S110" s="13">
+        <v>1</v>
+      </c>
       <c r="T110" s="12" t="s">
-        <v>325</v>
+        <v>528</v>
       </c>
       <c r="U110" s="12" t="str" cm="1">
         <f t="array" ref="U110">_xlfn.REGEXEXTRACT(B110,"(?&lt;=//)[^/]+")</f>
-        <v>punishbang.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:U110" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Pending"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U105">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U110">
       <sortCondition descending="1" ref="S1:S110"/>
     </sortState>
   </autoFilter>
@@ -10035,13 +10144,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>377</v>
-      </c>
       <c r="C1" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D1" s="7" t="str">
         <f>_xlfn.CONCAT(A1,"-",B1,"-",C1)</f>
@@ -10050,94 +10159,94 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>377</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D2" s="7" t="str">
         <f t="shared" ref="D2:D6" si="0">_xlfn.CONCAT(A2,"-",B2,"-",C2)</f>
         <v>bdsm-soft-femdom</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>383</v>
-      </c>
       <c r="I2" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>377</v>
-      </c>
       <c r="C3" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D3" s="7" t="str">
         <f t="shared" si="0"/>
         <v>bdsm-soft-lesdom</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>378</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>379</v>
       </c>
       <c r="D4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>bdsm-hard-maledom</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>bdsm-hard-femdom</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -10149,13 +10258,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>383</v>
-      </c>
       <c r="C7" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>_xlfn.CONCAT(A7,"-",B7,"-",C7)</f>
@@ -10164,73 +10273,73 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>383</v>
-      </c>
       <c r="C8" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D8" s="6" t="str">
         <f t="shared" ref="D8:D16" si="1">_xlfn.CONCAT(A8,"-",B8,"-",C8)</f>
         <v>normal-rough-maledom</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>377</v>
-      </c>
       <c r="I8" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>383</v>
-      </c>
       <c r="C9" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>normal-rough-femdom</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>383</v>
-      </c>
       <c r="C10" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>normal-rough-lesdom</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>383</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>108</v>
@@ -10242,13 +10351,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>384</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>385</v>
       </c>
       <c r="D12" s="7" t="str">
         <f t="shared" si="1"/>
@@ -10257,13 +10366,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D13" s="7" t="str">
         <f t="shared" si="1"/>
@@ -10272,13 +10381,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D14" s="7" t="str">
         <f t="shared" si="1"/>
@@ -10287,13 +10396,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D15" s="7" t="str">
         <f t="shared" si="1"/>
@@ -10302,10 +10411,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>108</v>
